--- a/Descargas/R15_Juzgado De Familia De Colina_Sentencias Por Delito_2020-Enero.xlsx
+++ b/Descargas/R15_Juzgado De Familia De Colina_Sentencias Por Delito_2020-Enero.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="1" max="1" width="35.1" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -215,7 +215,7 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Materia</t>
+          <t xml:space="preserve">Tipo de Causa</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
@@ -227,241 +227,111 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">(R) Rectif. De Género Y Nombre, &gt; De 14 Y &lt; De 18 Años</t>
+          <t xml:space="preserve">Abandono Del Procedimiento</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos</t>
+          <t xml:space="preserve">Avenimiento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Conciliación</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Desistimiento</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Incompetencia</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Mediación</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
+          <t xml:space="preserve">No Da Curso A La Demanda</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">No Da Curso A La Solicitud</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
+          <t xml:space="preserve">Retiro</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Transacción</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="inlineStr" r="A14">
-        <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
-        </is>
-      </c>
-      <c r="B14" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="inlineStr" r="A15">
-        <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
-        </is>
-      </c>
-      <c r="B15" s="65">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="inlineStr" r="A16">
-        <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
-        </is>
-      </c>
-      <c r="B16" s="65">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="inlineStr" r="A17">
-        <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
-        </is>
-      </c>
-      <c r="B17" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="inlineStr" r="A18">
-        <is>
-          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
-        </is>
-      </c>
-      <c r="B18" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="inlineStr" r="A19">
-        <is>
-          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
-        </is>
-      </c>
-      <c r="B19" s="65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c t="inlineStr" r="A20">
-        <is>
-          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
-        </is>
-      </c>
-      <c r="B20" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c t="inlineStr" r="A21">
-        <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
-        </is>
-      </c>
-      <c r="B21" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c t="inlineStr" r="A22">
-        <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
-        </is>
-      </c>
-      <c r="B22" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c t="inlineStr" r="A23">
-        <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
-        </is>
-      </c>
-      <c r="B23" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="inlineStr" r="A24">
-        <is>
-          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
-        </is>
-      </c>
-      <c r="B24" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c t="inlineStr" r="A25">
-        <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
-        </is>
-      </c>
-      <c r="B25" s="65">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="inlineStr" r="A26">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B26" s="65">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
